--- a/Design and execution/Casos de pruebas.xlsx
+++ b/Design and execution/Casos de pruebas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d3c1a7d621593ee/Escritorio/QA Automation/Automation/Ejercicio practico Tienda de Mascotas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joha_\PetStore\PetStore\Design and execution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="14_{69B508E9-D9DC-4509-A91A-25616F451D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9674307D-888E-4209-A556-4B86CEDE05D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D379B997-CAA3-4F19-9E0A-3F70DE06F92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="129">
   <si>
     <t>Identificador</t>
   </si>
@@ -120,10 +120,6 @@
   </si>
   <si>
     <t>Validar que en el campo name se pueda ingresar el nombre de la mascota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-*Tener Postman instalado</t>
   </si>
   <si>
     <r>
@@ -434,12 +430,706 @@
   <si>
     <t>CP10-PETACTUALIZARINFOMASCOTA</t>
   </si>
+  <si>
+    <t>Buscar una mascota por name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar que el identificador si muetre los datos de la mascota cuando se le ingresa el name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+*Tener Postman instalado
+*Api disponible 
+*Tener un navegador instalado
+*Tener acceso a Internet
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Seleccionar el metodo PUT
+2. Ingresar la url/pet
+3. Parametros
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>{
+  "id": 0,
+  "category": {
+    "id": 0,
+    "name": "string"
+  },
+  "name": "Pepe",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">
+4. en name "ingresar nombre de la mascota ya creada"
+5. Enviar la petición </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Peticion correcta - el sistema debe arrojar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>un status code 200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>CP11-PETACTUALIZARINFOMASCOTA</t>
+  </si>
+  <si>
+    <t>Buscar una mascota por name que no se encuentra registrada</t>
+  </si>
+  <si>
+    <t>Validar que el identificador al ingresar un name no registrado arroje un status 400  
+Invalid name supplied</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Seleccionar el metodo PUT
+2. Ingresar la url/pet
+3. Parametros
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>{
+  "id": 0,
+  "category": {
+    "id": 0,
+    "name": "string"
+  },
+  "name": "Paco",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">
+4. en name "ingresar nombre de la mascota no creada"
+5. Enviar la petición </t>
+    </r>
+  </si>
+  <si>
+    <t>CP12-PETACTUALIZARINFOMASCOTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar que el identidifador id sea un número entero </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Seleccionar el metodo PUT
+2. Ingresar la url/pet
+3. Parametros
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>{
+  "id": 124,
+  "category": {
+    "id": 0,
+    "name": "string"
+  },
+  "name": "Paco",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">
+4. en id de pet "ingresar un mumero entero"
+5. Enviar la petición </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Peticion incorrecta - el sistema debe arrojar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>un status code 400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">  Invalid name supplied</t>
+    </r>
+  </si>
+  <si>
+    <t>CP13-PETACTUALIZARINFOMASCOTA</t>
+  </si>
+  <si>
+    <t>Ingresar en el Id de pet un número entero</t>
+  </si>
+  <si>
+    <t>Validar que el Id de pet al registrar un número decimal arroje un status code 400 Invalid id supplied</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Seleccionar el metodo PUT
+2. Ingresar la url/pet
+3. Parametros
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>{
+  "id": 124,36,
+  "category": {
+    "id": 0,
+    "name": "string"
+  },
+  "name": "Paco",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">
+4. en id de pet "ingresar un mumero decimal"
+5. Enviar la petición </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Peticion incorrecta - el sistema debe arrojar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>un status code 400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">  Invalid id supplied
+{
+    "code": 400,
+    "type": "unknown",
+    "message": "bad input"
+}
+</t>
+    </r>
+  </si>
+  <si>
+    <t>CP14-PETACTUALIZARINFOMASCOTA</t>
+  </si>
+  <si>
+    <t>Ingresar name de Category con campo vacio</t>
+  </si>
+  <si>
+    <t>Validar que al estar el identifciador name vacio nos arroje un status code 400 invalid name supplied</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Seleccionar el metodo PUT
+2. Ingresar la url/pet
+3. Parametros
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>{
+  "id": ***....,
+  "category": {
+    "id": 0,
+    "name": ""
+  },
+  "name": "Paco",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">
+4. en id de pet "ingresar un mumero decimal"
+5. Enviar la petición </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Peticion incorrecta - el sistema debe arrojar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>un status code 400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">  Invalid name supplied
+</t>
+    </r>
+  </si>
+  <si>
+    <t>CP15-PETACTUALIZARMASCOTAENTIENDA</t>
+  </si>
+  <si>
+    <t>CP16-PETACTUALIZARMASCOTAENTIENDA</t>
+  </si>
+  <si>
+    <t>Ingresar id de mascota registrada</t>
+  </si>
+  <si>
+    <t>Validar que al ingresar en el identificador un id de una mascota existente arroje un status code 200</t>
+  </si>
+  <si>
+    <t>Ingresar id de mascota no registrada</t>
+  </si>
+  <si>
+    <t>CP17-PETACTUALIZARMASCOTAENTIENDA</t>
+  </si>
+  <si>
+    <t>Ingresar id de mascota con números y letras</t>
+  </si>
+  <si>
+    <t>Validar que al ingresar en el identificador id números y letrasde arroje un status code  405 Invalid input</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Peticion incorrecta - el sistema debe arrojar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>un status code 405</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">  Invalid input
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Ingresar id de mascota con números, letras y carácter especial</t>
+  </si>
+  <si>
+    <t>Validar que al ingresar en el identificador id números, letrasdey carácter especial arroje un status code  405 Invalid input</t>
+  </si>
+  <si>
+    <t>Validar que al ingresar en el identificador un id de una mascota no registrada arroje un status code 400 Pet not found</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Peticion incorrecta - el sistema debe arrojar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>un status code 400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">  Pet not found
+</t>
+    </r>
+  </si>
+  <si>
+    <t>CP18-PETACTUALIZARMASCOTAENTIENDA</t>
+  </si>
+  <si>
+    <t>CP19-FILTRARMASCOTAPORSTATUS</t>
+  </si>
+  <si>
+    <t>Buscar una mascota por status available</t>
+  </si>
+  <si>
+    <t>CP20-FILTRARMASCOTAPORSTATUS</t>
+  </si>
+  <si>
+    <t>Validar que al seleccionar available nos arroje un status code 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo POST
+2. Ingresar la url/pet/{petid}
+3. id de mascota (números, letras y carácter especial)
+4. Enviar la petición </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo POST
+2. Ingresar la url/pet/{petid}
+3. id de mascota (números y letras)
+4. Enviar la petición </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo POST
+2. Ingresar la url/pet/{petid}
+3. id de mascota no registrada
+4. Enviar la petición </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo POST
+2. Ingresar la url/pet/{petid}
+3. id de mascota ya registrada
+4. Enviar la petición </t>
+  </si>
+  <si>
+    <t>Buscar una mascota por status sold</t>
+  </si>
+  <si>
+    <t>Validar que al seleccionar sold nos arroje un status code 200</t>
+  </si>
+  <si>
+    <t>CP21-FILTRARMASCOTAPORSTATUS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Peticion correcta - el sistema debe arrojar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>un status code 200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">  
+ {
+        "id": 100,
+        "category": {
+            "id": 1,
+            "name": "Tico"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "https://images.all-free-download.com/images/graphiclarge/adorable_animal_breed_canine_cute_dog_doggy_603714.jpg"
+        ],
+        "tags": [
+            {
+                "id": 1,
+                "name": "teste"
+            }
+        ],
+        "status": "available"
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo GET
+2. Ingresar la url/pet/findByStatus
+3. seleccionar la pestaña Params
+4. Selecciona opción sold
+5. Enviar la petición </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo GET
+2. Ingresar la url/pet/findByStatus
+3. seleccionar la pestaña Params
+4. Selecciona opción available
+5. Enviar la petición </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Peticion correcta - el sistema debe arrojar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>un status code 200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">  
+5. Visulaizar la lista de las mascotas que se encuentran en este status
+{
+        "id": 100,
+        "category": {
+            "id": 1,
+            "name": "Tico"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "https://images.all-free-download.com/images/graphiclarge/adorable_animal_breed_canine_cute_dog_doggy_603714.jpg"
+        ],
+        "tags": [
+            {
+                "id": 1,
+                "name": "teste"
+            }
+        ],
+        "status": "available"
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t>Buscar una mascota por status vacio</t>
+  </si>
+  <si>
+    <t>Validar que al seleccionar un estado vacio nos arroje un status code 400 invalid status value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo GET
+2. Ingresar la url/pet/findByStatus
+3. seleccionar la pestaña Params
+4. Selecciona el status avalible y en el value dejarlo vacio
+5. Enviar la petición </t>
+  </si>
+  <si>
+    <t>CP22-FILTRARMASCOTAPORSTATUS</t>
+  </si>
+  <si>
+    <t>Buscar una mascota por status invalido</t>
+  </si>
+  <si>
+    <t>Validar que al indicar un estado invalido nos arroje un status code 400 invalid status value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo GET
+2. Ingresar la url/pet/findByStatus
+3. seleccionar la pestaña Params
+4. Selecciona el status sold y en el value ingresar números y letras "gh123"
+5. Enviar la petición </t>
+  </si>
+  <si>
+    <t>Eliminar mascota por id</t>
+  </si>
+  <si>
+    <t>CP23-ELIMINARMASCOTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo DELETE
+2. Ingresar la url/pet/petid
+3. ingresa el id de una mascota ya registrada 
+4. Enviar la petición </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Peticion incorrecta - el sistema debe arrojar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>un status code 400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">  Invalid status value
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Peticion correcta - el sistema debe arrojar un status code 200 eliminando mascota 
+</t>
+  </si>
+  <si>
+    <t>CP24-ELIMINARMASCOTA</t>
+  </si>
+  <si>
+    <t>Eliminar mascota por id con número decimal</t>
+  </si>
+  <si>
+    <t>Validar que al eliminar la mascota por el id nos arroje un status code 200 eliminando la mascota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar que al eliminar la mascota por el id y el número es un decimal nos arroje un status code 400 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo DELETE
+2. Ingresar la url/pet/petid
+3. ingresa el id de una mascota con números decimales 
+4. Enviar la petición </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Peticion incorrecta - el sistema debe arrojar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>un status code 400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve"> 
+{
+    "code": 404,
+    "type": "unknown",
+    "message": "java.lang.NumberFormatException: For input string: \"353,5\""
+} 
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -466,6 +1156,11 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Poppins"/>
     </font>
@@ -529,14 +1224,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -554,9 +1246,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -583,6 +1272,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,11 +1495,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB999"/>
+  <dimension ref="A1:AB1011"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -823,75 +1515,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
     </row>
     <row r="2" spans="1:28" ht="297" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="1"/>
@@ -914,30 +1606,30 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="99" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A3" s="1"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="1"/>
@@ -960,30 +1652,30 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="99" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A4" s="1"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>27</v>
+      <c r="G4" s="14" t="s">
+        <v>32</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="1"/>
@@ -1006,30 +1698,30 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" ht="99" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A5" s="1"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>27</v>
+      <c r="E5" s="13" t="s">
+        <v>61</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="1"/>
@@ -1052,30 +1744,30 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="99" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A6" s="1"/>
-      <c r="B6" s="17" t="s">
-        <v>40</v>
+      <c r="B6" s="15" t="s">
+        <v>39</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>27</v>
+      <c r="E6" s="13" t="s">
+        <v>61</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="1"/>
@@ -1100,28 +1792,28 @@
     </row>
     <row r="7" spans="1:28" ht="158.4" x14ac:dyDescent="0.7">
       <c r="A7" s="1"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="1"/>
@@ -1144,30 +1836,30 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="99" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A8" s="1"/>
-      <c r="B8" s="18" t="s">
-        <v>45</v>
+      <c r="B8" s="16" t="s">
+        <v>44</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="1"/>
@@ -1190,30 +1882,30 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="99" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A9" s="1"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="1"/>
@@ -1236,30 +1928,30 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="99" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
-      <c r="B10" s="18" t="s">
-        <v>58</v>
+      <c r="B10" s="16" t="s">
+        <v>57</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>53</v>
+      <c r="E10" s="13" t="s">
+        <v>61</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="1"/>
@@ -1282,18 +1974,32 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:28" ht="408.6" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="D11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1314,16 +2020,32 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:28" ht="408.6" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="1"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="B12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1344,16 +2066,32 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:28" ht="408.6" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="B13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1374,16 +2112,32 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:28" ht="384" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="B14" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1404,16 +2158,32 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:28" ht="384" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="B15" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1434,16 +2204,32 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A16" s="1"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="B16" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1464,60 +2250,78 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
-        <v>8</v>
+    <row r="17" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="18" t="s">
+        <v>83</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>9</v>
+      <c r="C17" s="9" t="s">
+        <v>86</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>10</v>
+      <c r="D17" s="9" t="s">
+        <v>93</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>11</v>
+      <c r="E17" s="13" t="s">
+        <v>61</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>12</v>
+      <c r="F17" s="14" t="s">
+        <v>102</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>13</v>
+      <c r="G17" s="14" t="s">
+        <v>94</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>14</v>
+      <c r="H17" s="12" t="s">
+        <v>17</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-    </row>
-    <row r="18" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A18" s="1"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="B18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1538,16 +2342,32 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="B19" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1568,16 +2388,32 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="409.6" x14ac:dyDescent="0.7">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="B20" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1598,16 +2434,32 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="409.6" x14ac:dyDescent="0.7">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="B21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1628,16 +2480,32 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="B22" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1658,16 +2526,32 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="B23" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1688,16 +2572,32 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="B24" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1718,16 +2618,32 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="237.6" x14ac:dyDescent="0.7">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="B25" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1748,16 +2664,16 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1778,16 +2694,16 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1808,16 +2724,16 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1838,16 +2754,16 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1868,16 +2784,16 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1898,7 +2814,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1928,7 +2844,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1958,7 +2874,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1988,7 +2904,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2018,7 +2934,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -30968,9 +31884,369 @@
       <c r="AA999" s="1"/>
       <c r="AB999" s="1"/>
     </row>
+    <row r="1000" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="1"/>
+      <c r="C1000" s="1"/>
+      <c r="D1000" s="1"/>
+      <c r="E1000" s="2"/>
+      <c r="F1000" s="1"/>
+      <c r="G1000" s="1"/>
+      <c r="H1000" s="1"/>
+      <c r="I1000" s="1"/>
+      <c r="J1000" s="1"/>
+      <c r="K1000" s="1"/>
+      <c r="L1000" s="1"/>
+      <c r="M1000" s="1"/>
+      <c r="N1000" s="1"/>
+      <c r="O1000" s="1"/>
+      <c r="P1000" s="1"/>
+      <c r="Q1000" s="1"/>
+      <c r="R1000" s="1"/>
+      <c r="S1000" s="1"/>
+      <c r="T1000" s="1"/>
+      <c r="U1000" s="1"/>
+      <c r="V1000" s="1"/>
+      <c r="W1000" s="1"/>
+      <c r="X1000" s="1"/>
+      <c r="Y1000" s="1"/>
+      <c r="Z1000" s="1"/>
+      <c r="AA1000" s="1"/>
+      <c r="AB1000" s="1"/>
+    </row>
+    <row r="1001" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="1"/>
+      <c r="J1001" s="1"/>
+      <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
+      <c r="O1001" s="1"/>
+      <c r="P1001" s="1"/>
+      <c r="Q1001" s="1"/>
+      <c r="R1001" s="1"/>
+      <c r="S1001" s="1"/>
+      <c r="T1001" s="1"/>
+      <c r="U1001" s="1"/>
+      <c r="V1001" s="1"/>
+      <c r="W1001" s="1"/>
+      <c r="X1001" s="1"/>
+      <c r="Y1001" s="1"/>
+      <c r="Z1001" s="1"/>
+      <c r="AA1001" s="1"/>
+      <c r="AB1001" s="1"/>
+    </row>
+    <row r="1002" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="1"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+      <c r="AA1002" s="1"/>
+      <c r="AB1002" s="1"/>
+    </row>
+    <row r="1003" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="1"/>
+      <c r="D1003" s="1"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="1"/>
+      <c r="H1003" s="1"/>
+      <c r="I1003" s="1"/>
+      <c r="J1003" s="1"/>
+      <c r="K1003" s="1"/>
+      <c r="L1003" s="1"/>
+      <c r="M1003" s="1"/>
+      <c r="N1003" s="1"/>
+      <c r="O1003" s="1"/>
+      <c r="P1003" s="1"/>
+      <c r="Q1003" s="1"/>
+      <c r="R1003" s="1"/>
+      <c r="S1003" s="1"/>
+      <c r="T1003" s="1"/>
+      <c r="U1003" s="1"/>
+      <c r="V1003" s="1"/>
+      <c r="W1003" s="1"/>
+      <c r="X1003" s="1"/>
+      <c r="Y1003" s="1"/>
+      <c r="Z1003" s="1"/>
+      <c r="AA1003" s="1"/>
+      <c r="AB1003" s="1"/>
+    </row>
+    <row r="1004" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="1"/>
+      <c r="D1004" s="1"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="1"/>
+      <c r="I1004" s="1"/>
+      <c r="J1004" s="1"/>
+      <c r="K1004" s="1"/>
+      <c r="L1004" s="1"/>
+      <c r="M1004" s="1"/>
+      <c r="N1004" s="1"/>
+      <c r="O1004" s="1"/>
+      <c r="P1004" s="1"/>
+      <c r="Q1004" s="1"/>
+      <c r="R1004" s="1"/>
+      <c r="S1004" s="1"/>
+      <c r="T1004" s="1"/>
+      <c r="U1004" s="1"/>
+      <c r="V1004" s="1"/>
+      <c r="W1004" s="1"/>
+      <c r="X1004" s="1"/>
+      <c r="Y1004" s="1"/>
+      <c r="Z1004" s="1"/>
+      <c r="AA1004" s="1"/>
+      <c r="AB1004" s="1"/>
+    </row>
+    <row r="1005" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="1"/>
+      <c r="D1005" s="1"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="1"/>
+      <c r="G1005" s="1"/>
+      <c r="H1005" s="1"/>
+      <c r="I1005" s="1"/>
+      <c r="J1005" s="1"/>
+      <c r="K1005" s="1"/>
+      <c r="L1005" s="1"/>
+      <c r="M1005" s="1"/>
+      <c r="N1005" s="1"/>
+      <c r="O1005" s="1"/>
+      <c r="P1005" s="1"/>
+      <c r="Q1005" s="1"/>
+      <c r="R1005" s="1"/>
+      <c r="S1005" s="1"/>
+      <c r="T1005" s="1"/>
+      <c r="U1005" s="1"/>
+      <c r="V1005" s="1"/>
+      <c r="W1005" s="1"/>
+      <c r="X1005" s="1"/>
+      <c r="Y1005" s="1"/>
+      <c r="Z1005" s="1"/>
+      <c r="AA1005" s="1"/>
+      <c r="AB1005" s="1"/>
+    </row>
+    <row r="1006" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="1"/>
+      <c r="D1006" s="1"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="1"/>
+      <c r="G1006" s="1"/>
+      <c r="H1006" s="1"/>
+      <c r="I1006" s="1"/>
+      <c r="J1006" s="1"/>
+      <c r="K1006" s="1"/>
+      <c r="L1006" s="1"/>
+      <c r="M1006" s="1"/>
+      <c r="N1006" s="1"/>
+      <c r="O1006" s="1"/>
+      <c r="P1006" s="1"/>
+      <c r="Q1006" s="1"/>
+      <c r="R1006" s="1"/>
+      <c r="S1006" s="1"/>
+      <c r="T1006" s="1"/>
+      <c r="U1006" s="1"/>
+      <c r="V1006" s="1"/>
+      <c r="W1006" s="1"/>
+      <c r="X1006" s="1"/>
+      <c r="Y1006" s="1"/>
+      <c r="Z1006" s="1"/>
+      <c r="AA1006" s="1"/>
+      <c r="AB1006" s="1"/>
+    </row>
+    <row r="1007" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1007" s="1"/>
+      <c r="B1007" s="1"/>
+      <c r="C1007" s="1"/>
+      <c r="D1007" s="1"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="1"/>
+      <c r="G1007" s="1"/>
+      <c r="H1007" s="1"/>
+      <c r="I1007" s="1"/>
+      <c r="J1007" s="1"/>
+      <c r="K1007" s="1"/>
+      <c r="L1007" s="1"/>
+      <c r="M1007" s="1"/>
+      <c r="N1007" s="1"/>
+      <c r="O1007" s="1"/>
+      <c r="P1007" s="1"/>
+      <c r="Q1007" s="1"/>
+      <c r="R1007" s="1"/>
+      <c r="S1007" s="1"/>
+      <c r="T1007" s="1"/>
+      <c r="U1007" s="1"/>
+      <c r="V1007" s="1"/>
+      <c r="W1007" s="1"/>
+      <c r="X1007" s="1"/>
+      <c r="Y1007" s="1"/>
+      <c r="Z1007" s="1"/>
+      <c r="AA1007" s="1"/>
+      <c r="AB1007" s="1"/>
+    </row>
+    <row r="1008" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1008" s="1"/>
+      <c r="B1008" s="1"/>
+      <c r="C1008" s="1"/>
+      <c r="D1008" s="1"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="1"/>
+      <c r="G1008" s="1"/>
+      <c r="H1008" s="1"/>
+      <c r="I1008" s="1"/>
+      <c r="J1008" s="1"/>
+      <c r="K1008" s="1"/>
+      <c r="L1008" s="1"/>
+      <c r="M1008" s="1"/>
+      <c r="N1008" s="1"/>
+      <c r="O1008" s="1"/>
+      <c r="P1008" s="1"/>
+      <c r="Q1008" s="1"/>
+      <c r="R1008" s="1"/>
+      <c r="S1008" s="1"/>
+      <c r="T1008" s="1"/>
+      <c r="U1008" s="1"/>
+      <c r="V1008" s="1"/>
+      <c r="W1008" s="1"/>
+      <c r="X1008" s="1"/>
+      <c r="Y1008" s="1"/>
+      <c r="Z1008" s="1"/>
+      <c r="AA1008" s="1"/>
+      <c r="AB1008" s="1"/>
+    </row>
+    <row r="1009" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1009" s="1"/>
+      <c r="B1009" s="1"/>
+      <c r="C1009" s="1"/>
+      <c r="D1009" s="1"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="1"/>
+      <c r="G1009" s="1"/>
+      <c r="H1009" s="1"/>
+      <c r="I1009" s="1"/>
+      <c r="J1009" s="1"/>
+      <c r="K1009" s="1"/>
+      <c r="L1009" s="1"/>
+      <c r="M1009" s="1"/>
+      <c r="N1009" s="1"/>
+      <c r="O1009" s="1"/>
+      <c r="P1009" s="1"/>
+      <c r="Q1009" s="1"/>
+      <c r="R1009" s="1"/>
+      <c r="S1009" s="1"/>
+      <c r="T1009" s="1"/>
+      <c r="U1009" s="1"/>
+      <c r="V1009" s="1"/>
+      <c r="W1009" s="1"/>
+      <c r="X1009" s="1"/>
+      <c r="Y1009" s="1"/>
+      <c r="Z1009" s="1"/>
+      <c r="AA1009" s="1"/>
+      <c r="AB1009" s="1"/>
+    </row>
+    <row r="1010" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1010" s="1"/>
+      <c r="B1010" s="1"/>
+      <c r="C1010" s="1"/>
+      <c r="D1010" s="1"/>
+      <c r="E1010" s="2"/>
+      <c r="F1010" s="1"/>
+      <c r="G1010" s="1"/>
+      <c r="H1010" s="1"/>
+      <c r="I1010" s="1"/>
+      <c r="J1010" s="1"/>
+      <c r="K1010" s="1"/>
+      <c r="L1010" s="1"/>
+      <c r="M1010" s="1"/>
+      <c r="N1010" s="1"/>
+      <c r="O1010" s="1"/>
+      <c r="P1010" s="1"/>
+      <c r="Q1010" s="1"/>
+      <c r="R1010" s="1"/>
+      <c r="S1010" s="1"/>
+      <c r="T1010" s="1"/>
+      <c r="U1010" s="1"/>
+      <c r="V1010" s="1"/>
+      <c r="W1010" s="1"/>
+      <c r="X1010" s="1"/>
+      <c r="Y1010" s="1"/>
+      <c r="Z1010" s="1"/>
+      <c r="AA1010" s="1"/>
+      <c r="AB1010" s="1"/>
+    </row>
+    <row r="1011" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1011" s="1"/>
+      <c r="B1011" s="1"/>
+      <c r="C1011" s="1"/>
+      <c r="D1011" s="1"/>
+      <c r="E1011" s="2"/>
+      <c r="F1011" s="1"/>
+      <c r="G1011" s="1"/>
+      <c r="H1011" s="1"/>
+      <c r="I1011" s="1"/>
+      <c r="J1011" s="1"/>
+      <c r="K1011" s="1"/>
+      <c r="L1011" s="1"/>
+      <c r="M1011" s="1"/>
+      <c r="N1011" s="1"/>
+      <c r="O1011" s="1"/>
+      <c r="P1011" s="1"/>
+      <c r="Q1011" s="1"/>
+      <c r="R1011" s="1"/>
+      <c r="S1011" s="1"/>
+      <c r="T1011" s="1"/>
+      <c r="U1011" s="1"/>
+      <c r="V1011" s="1"/>
+      <c r="W1011" s="1"/>
+      <c r="X1011" s="1"/>
+      <c r="Y1011" s="1"/>
+      <c r="Z1011" s="1"/>
+      <c r="AA1011" s="1"/>
+      <c r="AB1011" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="I1:I999" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="I1:I1011" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PENDING,IN PROGRESS,BLOCKED,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30990,95 +32266,95 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-    </row>
-    <row r="2" spans="1:28" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="11" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+    </row>
+    <row r="2" spans="1:28" ht="303.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
